--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/046_AutoFitColumns.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/046_AutoFitColumns.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="R93bfcd2ec7aa494c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="Ra034b58b24614a42"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/046_AutoFitColumns.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/046_AutoFitColumns.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="Ra034b58b24614a42"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="R780a6eb3c1e84ec3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/046_AutoFitColumns.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/046_AutoFitColumns.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="R780a6eb3c1e84ec3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="R62d44751a7a24afb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/046_AutoFitColumns.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/046_AutoFitColumns.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="R62d44751a7a24afb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="R9fbfa5ec504242b8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/046_AutoFitColumns.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/046_AutoFitColumns.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="R9fbfa5ec504242b8"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="R63299690027a4ff0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/046_AutoFitColumns.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/046_AutoFitColumns.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="R63299690027a4ff0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="Rd4bfca184dc24abd"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/046_AutoFitColumns.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/046_AutoFitColumns.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="Rd4bfca184dc24abd"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="R6a54dba460f5482b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/046_AutoFitColumns.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/046_AutoFitColumns.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="R6a54dba460f5482b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="Redc13cfa85cd448f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/046_AutoFitColumns.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/046_AutoFitColumns.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="Redc13cfa85cd448f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="R6f80d4b234b34101"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/046_AutoFitColumns.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/046_AutoFitColumns.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="R6f80d4b234b34101"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="R97e5b4cbaa424431"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/046_AutoFitColumns.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/046_AutoFitColumns.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="R97e5b4cbaa424431"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="Rd337e2f4474d4ed3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,18 +30,18 @@
       <x:b/>
       <x:sz val="14"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="4">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/046_AutoFitColumns.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/046_AutoFitColumns.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="Rd337e2f4474d4ed3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="R92be4b22673b486f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -30,18 +30,18 @@
       <x:b/>
       <x:sz val="14"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="4">

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/046_AutoFitColumns.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/046_AutoFitColumns.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="R92be4b22673b486f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AutoFitColumns" sheetId="1" r:id="Rc3fc59e3d1fe41b0"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
